--- a/data/roster_men.xlsx
+++ b/data/roster_men.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Men League Rosters" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Rosters" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nico Collins</t>
+          <t>Justin Jefferson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,45 +496,45 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>57.4</v>
+        <v>95.73</v>
       </c>
       <c r="H2" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brian Thomas Jr.</t>
+          <t>Josh Jacobs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -543,69 +543,69 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>45.37</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alvin Kamara</t>
+          <t>Joe Burrow</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>61.57</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marvin Harrison Jr.</t>
+          <t>Matthew Golden</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -629,36 +629,36 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>47.54</v>
+        <v>14.47</v>
       </c>
       <c r="H5" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RJ Harvey</t>
+          <t>Mark Andrews</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -672,41 +672,41 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>16.48</v>
+        <v>43.14</v>
       </c>
       <c r="H6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Emeka Egbuka</t>
+          <t>Brandon Aubrey</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -715,41 +715,41 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>20.15</v>
+        <v>98.44</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tyler Warren</t>
+          <t>Elic Ayomanor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -758,26 +758,26 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>89.40000000000001</v>
+        <v>5.95</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dak Prescott</t>
+          <t>Jordan Love</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,12 +787,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -801,112 +801,112 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>54.99</v>
+        <v>38.2</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Josh Downs</t>
+          <t>Jahmyr Gibbs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>16.48</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lions D/ST</t>
+          <t>Deebo Samuel</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>70.67</v>
+        <v>53.71</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kayshon Boutte</t>
+          <t>Tetairoa McMillan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -930,41 +930,41 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>15.17</v>
+        <v>60.6</v>
       </c>
       <c r="H12" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Daniel Jones</t>
+          <t>TreVeyon Henderson</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -973,41 +973,41 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>73.45999999999999</v>
+        <v>25.85</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kimani Vidal</t>
+          <t>Zach Ertz</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1016,36 +1016,36 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>74.61</v>
+        <v>30.81</v>
       </c>
       <c r="H14" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Malik Washington</t>
+          <t>Emanuel Wilson</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1059,26 +1059,26 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.83</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chiefs D/ST</t>
+          <t>Ravens D/ST</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1102,84 +1102,84 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>39.41</v>
+        <v>29.32</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vidhal Bucket</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brandon McManus</t>
+          <t>Sam Darnold</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>9.970000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="H17" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Simmy G</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>MuzzyCompany</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jahmyr Gibbs</t>
+          <t>Romeo Doubs</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1188,26 +1188,26 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>80.93000000000001</v>
+        <v>36.19</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Matt McIsaac</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Derrick Henry</t>
+          <t>De'Von Achane</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1231,26 +1231,26 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>92.54000000000001</v>
+        <v>99.02</v>
       </c>
       <c r="H19" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Terry McLaurin</t>
+          <t>Brian Thomas Jr.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1260,40 +1260,40 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>25.16</v>
+        <v>45.37</v>
       </c>
       <c r="H20" t="n">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Joe Burrow</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1303,98 +1303,98 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8.130000000000001</v>
+        <v>38.91</v>
       </c>
       <c r="H21" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DJ Moore</t>
+          <t>George Kittle</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>35.66</v>
+        <v>77.27</v>
       </c>
       <c r="H22" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Travis Kelce</t>
+          <t>Travis Hunter</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1403,26 +1403,26 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>84.16</v>
+        <v>26.21</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Deebo Samuel</t>
+          <t>Jordan Addison</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1446,26 +1446,26 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>53.71</v>
+        <v>45.71</v>
       </c>
       <c r="H24" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Keenan Allen</t>
+          <t>Khalil Shakir</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1489,36 +1489,36 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>67.81</v>
+        <v>35.51</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chase McLaughlin</t>
+          <t>Jauan Jennings</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1532,41 +1532,41 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>48.13</v>
+        <v>23.13</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jordan Love</t>
+          <t>Rachaad White</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1575,36 +1575,36 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>38.2</v>
+        <v>21.06</v>
       </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Troy Franklin</t>
+          <t>Brian Robinson Jr.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1618,84 +1618,84 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>20.41</v>
+        <v>1.96</v>
       </c>
       <c r="H28" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rashid Shaheed</t>
+          <t>Cameron Dicker</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>24.07</v>
+        <v>94.64</v>
       </c>
       <c r="H29" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Eddy Pineiro</t>
+          <t>Tyjae Spears</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1704,36 +1704,36 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>56.7</v>
+        <v>12.74</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Isiah Pacheco</t>
+          <t>Harold Fannin Jr.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1743,73 +1743,73 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>21.63</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Joe Flacco</t>
+          <t>Packers D/ST</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>15.42</v>
+        <v>65.05</v>
       </c>
       <c r="H32" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alec Pierce</t>
+          <t>Terry McLaurin</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1819,45 +1819,45 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.74</v>
+        <v>25.16</v>
       </c>
       <c r="H33" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Rams D/ST</t>
+          <t>Matthew Stafford</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1867,45 +1867,45 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>71.18000000000001</v>
+        <v>29.73</v>
       </c>
       <c r="H34" t="n">
         <v>10</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hamlin Hamlin McGill</t>
+          <t>Coscia's Song Hurts My Ears</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Christian Watson</t>
+          <t>Browns D/ST</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1915,25 +1915,25 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.72</v>
+        <v>13.37</v>
       </c>
       <c r="H35" t="n">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Mike F</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1969,34 +1969,34 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kyren Williams</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2005,26 +2005,26 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>74.69</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>James Cook III</t>
+          <t>Breece Hall</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2048,84 +2048,84 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>92.28</v>
+        <v>31.38</v>
       </c>
       <c r="H38" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TreVeyon Henderson</t>
+          <t>DJ Moore</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>25.85</v>
+        <v>35.66</v>
       </c>
       <c r="H39" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tetairoa McMillan</t>
+          <t>Travis Kelce</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2134,84 +2134,84 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>60.6</v>
+        <v>84.16</v>
       </c>
       <c r="H40" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rome Odunze</t>
+          <t>Jaylen Warren</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>71.02</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bo Nix</t>
+          <t>Travis Etienne Jr.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2220,41 +2220,41 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>53.52</v>
+        <v>45.9</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Javonte Williams</t>
+          <t>Justin Fields</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2263,64 +2263,64 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>84.98999999999999</v>
+        <v>6.62</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cam Skattebo</t>
+          <t>Darnell Mooney</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>21.92</v>
+        <v>7.99</v>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2356,29 +2356,29 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dallas Goedert</t>
+          <t>Vikings D/ST</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2388,30 +2388,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>21.86</v>
+        <v>34.01</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Harrison Butker</t>
+          <t>Chase McLaughlin</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2435,127 +2435,127 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>81.44</v>
+        <v>48.13</v>
       </c>
       <c r="H47" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jayden Reed</t>
+          <t>Zach Charbonnet</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.27</v>
+        <v>20.87</v>
       </c>
       <c r="H48" t="n">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Harold Fannin Jr.</t>
+          <t>Rome Odunze</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>9.300000000000001</v>
+        <v>71.02</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Drake Maye</t>
+          <t>Cairo Santos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2564,26 +2564,26 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>60.03</v>
+        <v>34.67</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>STEVE'S TEAM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Seahawks D/ST</t>
+          <t>49ers D/ST</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2593,12 +2593,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2607,31 +2607,31 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>56.88</v>
+        <v>14.04</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Matthew Haid</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chargers D/ST</t>
+          <t>Omarion Hampton</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2641,50 +2641,50 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>57.19</v>
+        <v>12.1</v>
       </c>
       <c r="H52" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Maye I send you Nix Picks?</t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kyle Monangai</t>
+          <t>Jaylen Waddle</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2693,41 +2693,41 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>8.779999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="H53" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Adam Mitko</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CeeDee Lamb</t>
+          <t>Bo Nix</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2736,84 +2736,84 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>94.26000000000001</v>
+        <v>53.52</v>
       </c>
       <c r="H54" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chase Brown</t>
+          <t>Jayden Reed</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>79.09</v>
+        <v>0.27</v>
       </c>
       <c r="H55" t="n">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lamar Jackson</t>
+          <t>Tucker Kraft</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2822,41 +2822,41 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>69.11</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Xavier Worthy</t>
+          <t>Jaxson Dart</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2865,41 +2865,41 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>57.09</v>
+        <v>43.39</v>
       </c>
       <c r="H57" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Breece Hall</t>
+          <t>Emeka Egbuka</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2908,41 +2908,41 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>31.38</v>
+        <v>20.15</v>
       </c>
       <c r="H58" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jameson Williams</t>
+          <t>Kenneth Walker III</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2951,41 +2951,41 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>18.22</v>
+        <v>46.97</v>
       </c>
       <c r="H59" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>David Njoku</t>
+          <t>Marvin Harrison Jr.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2994,127 +2994,127 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>21.85</v>
+        <v>47.54</v>
       </c>
       <c r="H60" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Khalil Shakir</t>
+          <t>Rhamondre Stevenson</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>35.51</v>
+        <v>46.85</v>
       </c>
       <c r="H61" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chris Godwin Jr.</t>
+          <t>Chase Brown</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.28</v>
+        <v>79.09</v>
       </c>
       <c r="H62" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Justin Fields</t>
+          <t>Kyle Monangai</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3123,26 +3123,26 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.62</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Vikings D/ST</t>
+          <t>Texans D/ST</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3152,12 +3152,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3166,36 +3166,36 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>34.01</v>
+        <v>53.29</v>
       </c>
       <c r="H64" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rashod Bateman</t>
+          <t>Colston Loveland</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3209,26 +3209,26 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.56</v>
+        <v>7.68</v>
       </c>
       <c r="H65" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Matt Prater</t>
+          <t>Tyler Loop</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3248,45 +3248,45 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>25.08</v>
+        <v>44.07</v>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Juwan Johnson</t>
+          <t>Chimere Dike</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3295,26 +3295,26 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>13.59</v>
+        <v>5.89</v>
       </c>
       <c r="H67" t="n">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>slime out vanko wit tha uzis</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Chimere Dike</t>
+          <t>Darius Slayton</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3324,12 +3324,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3338,69 +3338,69 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.89</v>
+        <v>3.3</v>
       </c>
       <c r="H68" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Timothy Kubik</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Jersey Jets </t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Saints D/ST</t>
+          <t>Davante Adams</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9399999999999999</v>
+        <v>70.87</v>
       </c>
       <c r="H69" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Jaime Barbosa</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Puka Nacua</t>
+          <t>Jameson Williams</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3420,131 +3420,131 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>63.77</v>
+        <v>18.22</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A.J. Brown</t>
+          <t>Chris Boswell</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>25.77</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Trey McBride</t>
+          <t>Seahawks D/ST</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>79.68000000000001</v>
+        <v>56.88</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Davante Adams</t>
+          <t>Daniel Jones</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3553,41 +3553,41 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>70.87</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Patrick Mahomes</t>
+          <t>Michael Pittman Jr.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3596,69 +3596,69 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>94.27</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tony Pollard</t>
+          <t>Wan'Dale Robinson</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>30.21</v>
+        <v>48.84</v>
       </c>
       <c r="H75" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jacory Croskey-Merritt</t>
+          <t>Cam Skattebo</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3668,55 +3668,55 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>35.5</v>
+        <v>21.92</v>
       </c>
       <c r="H76" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Matthew Golden</t>
+          <t>Derrick Henry</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3725,36 +3725,36 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>14.47</v>
+        <v>92.54000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Keon Coleman</t>
+          <t>Jacory Croskey-Merritt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3768,26 +3768,26 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>14.45</v>
+        <v>35.5</v>
       </c>
       <c r="H78" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hunter Henry</t>
+          <t>Kyle Pitts Sr.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3797,55 +3797,55 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>33.03</v>
+        <v>40.17</v>
       </c>
       <c r="H79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jared Goff</t>
+          <t>Chris Olave</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3854,79 +3854,79 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>20.05</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Eagles D/ST</t>
+          <t>Oronde Gadsden II</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>36.21</v>
+        <v>53.57</v>
       </c>
       <c r="H81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jake Elliott</t>
+          <t>C.J. Stroud</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3940,84 +3940,84 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>42.09</v>
+        <v>18.64</v>
       </c>
       <c r="H82" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Packers D/ST</t>
+          <t>Tre Tucker</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>65.05</v>
+        <v>5.1</v>
       </c>
       <c r="H83" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Wil Lutz</t>
+          <t>Kareem Hunt</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4026,36 +4026,36 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>33.78</v>
+        <v>19.21</v>
       </c>
       <c r="H84" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Time To Die</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Marvin Mims Jr.</t>
+          <t>Brashard Smith</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4065,30 +4065,30 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.57</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Clayton Acheson</t>
+          <t>Steven Panagakos</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Justin Jefferson</t>
+          <t>Amon-Ra St. Brown</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4112,84 +4112,84 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>95.73</v>
+        <v>78.75</v>
       </c>
       <c r="H86" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Bucky Irving</t>
+          <t>Jayden Daniels</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>11.23</v>
+        <v>36.1</v>
       </c>
       <c r="H87" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jayden Daniels</t>
+          <t>Tyler Warren</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4198,41 +4198,41 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>36.1</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>George Kittle</t>
+          <t>Bhayshul Tuten</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4241,69 +4241,69 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>77.27</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>George Pickens</t>
+          <t>Quinshon Judkins</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>82.62</v>
+        <v>16.99</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jakobi Meyers</t>
+          <t>Brandon Aiyuk</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4313,50 +4313,50 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>12.44</v>
+        <v>0.08</v>
       </c>
       <c r="H91" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cooper Kupp</t>
+          <t>Jordan Mason</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4370,26 +4370,26 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>12.3</v>
+        <v>20.55</v>
       </c>
       <c r="H92" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Michael Pittman Jr.</t>
+          <t>CeeDee Lamb</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4399,12 +4399,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4413,36 +4413,36 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>73.43000000000001</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jordan Mason</t>
+          <t>Calvin Ridley</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4452,45 +4452,45 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>20.55</v>
+        <v>7.19</v>
       </c>
       <c r="H94" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>J.J. McCarthy</t>
+          <t>Eddy Pineiro</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4499,127 +4499,127 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.72</v>
+        <v>56.7</v>
       </c>
       <c r="H95" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Texans D/ST</t>
+          <t>Aaron Jones Sr.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>53.29</v>
+        <v>19.37</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Brandon Aubrey</t>
+          <t>A.J. Brown</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>98.44</v>
+        <v>25.77</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kenneth Gainwell</t>
+          <t>Tez Johnson</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4628,69 +4628,69 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>17.76</v>
+        <v>3.57</v>
       </c>
       <c r="H98" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tre Tucker</t>
+          <t>Rams D/ST</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.1</v>
+        <v>71.18000000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Bam Knight</t>
+          <t>Ollie Gordon II</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4700,12 +4700,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4714,26 +4714,26 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>30.55</v>
+        <v>1.27</v>
       </c>
       <c r="H100" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tank Bigsby</t>
+          <t>Nick Chubb</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4743,12 +4743,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4757,21 +4757,21 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.99</v>
+        <v>16.29</v>
       </c>
       <c r="H101" t="n">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>The Silence AMONG The LAMBS</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4807,34 +4807,34 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Matthew Coscia</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sam Darnold</t>
+          <t>Brock Bowers</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4843,84 +4843,84 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>18.1</v>
+        <v>52.98</v>
       </c>
       <c r="H103" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Saquon Barkley</t>
+          <t>Jaxon Smith-Njigba</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>38.37</v>
+        <v>78.64</v>
       </c>
       <c r="H104" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Brock Bowers</t>
+          <t>Dak Prescott</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4929,26 +4929,26 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>52.98</v>
+        <v>54.99</v>
       </c>
       <c r="H105" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Kenneth Walker III</t>
+          <t>Tyler Allgeier</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4958,12 +4958,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4972,79 +4972,79 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>46.97</v>
+        <v>4.41</v>
       </c>
       <c r="H106" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mike Evans</t>
+          <t>Brock Purdy</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>7.31</v>
+        <v>16.16</v>
       </c>
       <c r="H107" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Aaron Jones Sr.</t>
+          <t>Drake London</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5054,73 +5054,73 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>19.37</v>
+        <v>75.33</v>
       </c>
       <c r="H108" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Kyler Murray</t>
+          <t>RJ Harvey</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>26.87</v>
+        <v>16.48</v>
       </c>
       <c r="H109" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Jordan Addison</t>
+          <t>Mike Evans</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5130,83 +5130,83 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>45.71</v>
+        <v>7.31</v>
       </c>
       <c r="H110" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Caleb Williams</t>
+          <t>Alvin Kamara</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>39.42</v>
+        <v>61.57</v>
       </c>
       <c r="H111" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Zach Charbonnet</t>
+          <t>Kenneth Gainwell</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5230,26 +5230,26 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>20.87</v>
+        <v>17.76</v>
       </c>
       <c r="H112" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Travis Etienne Jr.</t>
+          <t>Saquon Barkley</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5259,98 +5259,98 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>45.9</v>
+        <v>38.37</v>
       </c>
       <c r="H113" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Steelers D/ST</t>
+          <t>Ka'imi Fairbairn</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>39.22</v>
+        <v>30.71</v>
       </c>
       <c r="H114" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Chris Boswell</t>
+          <t>Cade Otton</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5359,84 +5359,84 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>83.79000000000001</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="H115" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Quentin Johnston</t>
+          <t>Colts D/ST</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>44.46</v>
+        <v>64.84</v>
       </c>
       <c r="H116" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Elic Ayomanor</t>
+          <t>Chuba Hubbard</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5445,79 +5445,79 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.95</v>
+        <v>35.97</v>
       </c>
       <c r="H117" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Giants D/ST</t>
+          <t>Zay Flowers</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6.95</v>
+        <v>76.87</v>
       </c>
       <c r="H118" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>It's Time</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Zach Ertz</t>
+          <t>Christian Watson</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5527,45 +5527,45 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>30.81</v>
+        <v>4.72</v>
       </c>
       <c r="H119" t="n">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Chris Vanko</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Samaje Perine</t>
+          <t>Patrick Mahomes</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5574,26 +5574,26 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.59</v>
+        <v>94.27</v>
       </c>
       <c r="H120" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ashton Jeanty</t>
+          <t>D'Andre Swift</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5603,88 +5603,88 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>71.73</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="H121" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Drake London</t>
+          <t>David Njoku</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>75.33</v>
+        <v>21.85</v>
       </c>
       <c r="H122" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Dallas Goedert</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5703,41 +5703,41 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>38.91</v>
+        <v>21.86</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Chuba Hubbard</t>
+          <t>Jerry Jeudy</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5746,41 +5746,41 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>35.97</v>
+        <v>12.15</v>
       </c>
       <c r="H124" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Jerry Jeudy</t>
+          <t>Ashton Jeanty</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5789,26 +5789,26 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>12.15</v>
+        <v>71.73</v>
       </c>
       <c r="H125" t="n">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Jaylen Waddle</t>
+          <t>Xavier Worthy</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5818,12 +5818,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5832,41 +5832,41 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>70.7</v>
+        <v>57.09</v>
       </c>
       <c r="H126" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mark Andrews</t>
+          <t>Quentin Johnston</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5875,84 +5875,84 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>43.14</v>
+        <v>44.46</v>
       </c>
       <c r="H127" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ricky Pearsall</t>
+          <t>Kyren Williams</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.2</v>
+        <v>74.69</v>
       </c>
       <c r="H128" t="n">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Jake Ferguson</t>
+          <t>Cooper Kupp</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5961,26 +5961,26 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>79.19</v>
+        <v>12.3</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Jake Bates</t>
+          <t>Andy Borregales</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5990,12 +5990,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6004,69 +6004,69 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>58.94</v>
+        <v>15.62</v>
       </c>
       <c r="H130" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Michael Penix Jr.</t>
+          <t>Bengals D/ST</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.41</v>
+        <v>5.97</v>
       </c>
       <c r="H131" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Calvin Austin III</t>
+          <t>Troy Franklin</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6090,41 +6090,41 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.68</v>
+        <v>20.41</v>
       </c>
       <c r="H132" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>JuJu Smith-Schuster</t>
+          <t>Jonnu Smith</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6133,36 +6133,36 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>7.16</v>
       </c>
       <c r="H133" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Brogerella</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jaguars D/ST</t>
+          <t>DeVonta Smith</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6172,45 +6172,45 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>42.21</v>
+        <v>24.21</v>
       </c>
       <c r="H134" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Braeden Twomey</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Kareem Hunt</t>
+          <t>Trey McBride</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -6219,31 +6219,31 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>19.21</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="H135" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tyler Loop</t>
+          <t>Lamar Jackson</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -6262,69 +6262,69 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>44.07</v>
+        <v>69.11</v>
       </c>
       <c r="H136" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Jets D/ST</t>
+          <t>Ricky Pearsall</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>8.23</v>
+        <v>4.2</v>
       </c>
       <c r="H137" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Amon-Ra St. Brown</t>
+          <t>Rashee Rice</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6348,69 +6348,69 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>78.75</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="H138" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>De'Von Achane</t>
+          <t>Josh Downs</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>99.02</v>
+        <v>16.48</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Omarion Hampton</t>
+          <t>Trey Benson</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6434,41 +6434,41 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>12.1</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Jaxon Smith-Njigba</t>
+          <t>Javonte Williams</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -6477,36 +6477,36 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>78.64</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Courtland Sutton</t>
+          <t>Isaiah Likely</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6520,84 +6520,84 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>66.09999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="H142" t="n">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Travis Hunter</t>
+          <t>Patriots D/ST</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>26.21</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="H143" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Evan Engram</t>
+          <t>Bijan Robinson</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6606,26 +6606,26 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>28.44</v>
+        <v>98.23</v>
       </c>
       <c r="H144" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Rashee Rice</t>
+          <t>DK Metcalf</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6635,12 +6635,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6649,69 +6649,69 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>82.73999999999999</v>
+        <v>86.25</v>
       </c>
       <c r="H145" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Broncos D/ST</t>
+          <t>Chris Godwin Jr.</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>81.25</v>
+        <v>1.28</v>
       </c>
       <c r="H146" t="n">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Quinshon Judkins</t>
+          <t>Kimani Vidal</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6721,55 +6721,55 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>16.99</v>
+        <v>74.61</v>
       </c>
       <c r="H147" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Woody Marks</t>
+          <t>Kirk Cousins</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6778,41 +6778,41 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>22.05</v>
+        <v>1.24</v>
       </c>
       <c r="H148" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Jaxson Dart</t>
+          <t>Bam Knight</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6821,36 +6821,36 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>43.39</v>
+        <v>30.55</v>
       </c>
       <c r="H149" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Aaron Rodgers</t>
+          <t>Dylan Sampson</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6864,41 +6864,41 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>16.17</v>
+        <v>0.77</v>
       </c>
       <c r="H150" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pulse check</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Oronde Gadsden II</t>
+          <t>Jason Myers</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6907,41 +6907,41 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>53.57</v>
+        <v>21.49</v>
       </c>
       <c r="H151" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Michael Badgley</t>
+          <t>Christian McCaffrey</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6950,79 +6950,79 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>73.13</v>
+        <v>99.61</v>
       </c>
       <c r="H152" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Buccaneers D/ST</t>
+          <t>James Cook III</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>14.52</v>
+        <v>92.28</v>
       </c>
       <c r="H153" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tyjae Spears</t>
+          <t>Baker Mayfield</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7036,41 +7036,41 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>12.74</v>
+        <v>33.3</v>
       </c>
       <c r="H154" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Christian McCaffrey</t>
+          <t>Sam LaPorta</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7079,69 +7079,69 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>99.61</v>
+        <v>58.18</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Jonathan Taylor</t>
+          <t>Rashid Shaheed</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>99.40000000000001</v>
+        <v>24.07</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Justin Herbert</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7165,41 +7165,41 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>86.65000000000001</v>
+        <v>70.48</v>
       </c>
       <c r="H157" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Zay Flowers</t>
+          <t>Jake Ferguson</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -7208,36 +7208,36 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>76.87</v>
+        <v>79.19</v>
       </c>
       <c r="H158" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sam LaPorta</t>
+          <t>Hollywood Brown</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7247,45 +7247,45 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>58.18</v>
+        <v>5.73</v>
       </c>
       <c r="H159" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DeVonta Smith</t>
+          <t>Harrison Butker</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7294,69 +7294,69 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>24.21</v>
+        <v>81.44</v>
       </c>
       <c r="H160" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Tyrone Tracy Jr.</t>
+          <t>Lions D/ST</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>47.11</v>
+        <v>70.67</v>
       </c>
       <c r="H161" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Stefon Diggs</t>
+          <t>Courtland Sutton</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7376,40 +7376,40 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>47.68</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H162" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Justin Herbert</t>
+          <t>Tony Pollard</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7419,30 +7419,30 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>70.48</v>
+        <v>30.21</v>
       </c>
       <c r="H163" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Trey Benson</t>
+          <t>Isiah Pacheco</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7452,98 +7452,98 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>21.63</v>
       </c>
       <c r="H164" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Kyle Pitts Sr.</t>
+          <t>Tee Higgins</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>40.17</v>
+        <v>73.04000000000001</v>
       </c>
       <c r="H165" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cameron Dicker</t>
+          <t>David Montgomery</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -7552,26 +7552,26 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>94.64</v>
+        <v>47.36</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Mommy team</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Colts D/ST</t>
+          <t>Bears D/ST</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -7595,41 +7595,41 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>64.84</v>
+        <v>16.04</v>
       </c>
       <c r="H167" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Jackson Noto</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Romeo Doubs</t>
+          <t>Jonathan Taylor</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -7638,79 +7638,79 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>36.19</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H168" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Browns D/ST</t>
+          <t>Garrett Wilson</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>13.37</v>
+        <v>13.61</v>
       </c>
       <c r="H169" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tez Johnson</t>
+          <t>T.J. Hockenson</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7724,26 +7724,26 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.57</v>
+        <v>50.15</v>
       </c>
       <c r="H170" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Malik Nabers</t>
+          <t>Jakobi Meyers</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7753,40 +7753,40 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>14.06</v>
+        <v>12.44</v>
       </c>
       <c r="H171" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Baker Mayfield</t>
+          <t>Kyler Murray</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7796,141 +7796,141 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>33.3</v>
+        <v>26.87</v>
       </c>
       <c r="H172" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ladd McConkey</t>
+          <t>Caleb Williams</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>88.18000000000001</v>
+        <v>39.42</v>
       </c>
       <c r="H173" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Garrett Wilson</t>
+          <t>Broncos D/ST</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>13.61</v>
+        <v>81.25</v>
       </c>
       <c r="H174" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>David Montgomery</t>
+          <t>Hunter Henry</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7939,41 +7939,41 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>47.36</v>
+        <v>33.03</v>
       </c>
       <c r="H175" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>T.J. Hockenson</t>
+          <t>Keenan Allen</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7982,41 +7982,41 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>50.15</v>
+        <v>67.81</v>
       </c>
       <c r="H176" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Jaylen Warren</t>
+          <t>Keon Coleman</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -8025,26 +8025,26 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>73.54000000000001</v>
+        <v>14.45</v>
       </c>
       <c r="H177" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Chris Olave</t>
+          <t>Ladd McConkey</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8064,30 +8064,30 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>70.01000000000001</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="H178" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Rhamondre Stevenson</t>
+          <t>J.K. Dobbins</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8097,55 +8097,55 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>46.85</v>
+        <v>56.75</v>
       </c>
       <c r="H179" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Jauan Jennings</t>
+          <t>Juwan Johnson</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -8154,26 +8154,26 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>23.13</v>
+        <v>13.59</v>
       </c>
       <c r="H180" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Rachaad White</t>
+          <t>Justice Hill</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8197,36 +8197,36 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>21.06</v>
+        <v>4.8</v>
       </c>
       <c r="H181" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tyler Allgeier</t>
+          <t>Joe Flacco</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8236,30 +8236,30 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.41</v>
+        <v>15.42</v>
       </c>
       <c r="H182" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Punxsutawney Fraud</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ka'imi Fairbairn</t>
+          <t>Michael Badgley</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8283,127 +8283,127 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>30.71</v>
+        <v>73.13</v>
       </c>
       <c r="H183" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Commanders D/ST</t>
+          <t>Puka Nacua</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.95</v>
+        <v>63.77</v>
       </c>
       <c r="H184" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Cade Otton</t>
+          <t>Nico Collins</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>9.460000000000001</v>
+        <v>57.4</v>
       </c>
       <c r="H185" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ryan Fitzgerald</t>
+          <t>George Pickens</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -8412,36 +8412,36 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5.11</v>
+        <v>82.62</v>
       </c>
       <c r="H186" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Panthers D/ST</t>
+          <t>Stefon Diggs</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8451,30 +8451,30 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.81</v>
+        <v>47.68</v>
       </c>
       <c r="H187" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Trevor Lawrence</t>
+          <t>Drake Maye</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8498,26 +8498,26 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>8.59</v>
+        <v>60.03</v>
       </c>
       <c r="H188" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Bijan Robinson</t>
+          <t>Joe Mixon</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8527,98 +8527,98 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>98.23</v>
+        <v>2.6</v>
       </c>
       <c r="H189" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Josh Jacobs</t>
+          <t>Nick Folk</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>95.65000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="H190" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tee Higgins</t>
+          <t>Rico Dowdle</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -8627,41 +8627,41 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>73.04000000000001</v>
+        <v>47.6</v>
       </c>
       <c r="H191" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DK Metcalf</t>
+          <t>Mason Taylor</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -8670,26 +8670,26 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>86.25</v>
+        <v>2.72</v>
       </c>
       <c r="H192" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>D'Andre Swift</t>
+          <t>Bucky Irving</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8709,40 +8709,40 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>79.31999999999999</v>
+        <v>11.23</v>
       </c>
       <c r="H193" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Calvin Ridley</t>
+          <t>Isaiah Davis</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8752,73 +8752,73 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>7.19</v>
+        <v>0.57</v>
       </c>
       <c r="H194" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Brock Purdy</t>
+          <t>Tyrone Tracy Jr.</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>16.16</v>
+        <v>47.11</v>
       </c>
       <c r="H195" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>J.K. Dobbins</t>
+          <t>Woody Marks</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8842,127 +8842,127 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>56.75</v>
+        <v>22.05</v>
       </c>
       <c r="H196" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tucker Kraft</t>
+          <t>Jaguars D/ST</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>74.43000000000001</v>
+        <v>42.21</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Darnell Mooney</t>
+          <t>AJ Barner</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>7.99</v>
+        <v>4.31</v>
       </c>
       <c r="H198" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Nick Chubb</t>
+          <t>Jake Bates</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8971,26 +8971,26 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>16.29</v>
+        <v>58.94</v>
       </c>
       <c r="H199" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Deflatriots</t>
+          <t>Final Boss</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Wan'Dale Robinson</t>
+          <t>Kayshon Boutte</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9000,12 +9000,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -9014,229 +9014,14 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>48.84</v>
+        <v>15.17</v>
       </c>
       <c r="H200" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Kaley Joseph</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Deflatriots</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Matthew Stafford</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>LAR</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
-        <v>29.73</v>
-      </c>
-      <c r="H201" t="n">
-        <v>10</v>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>Kaley Joseph</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Deflatriots</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Cairo Santos</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
-        <v>34.67</v>
-      </c>
-      <c r="H202" t="n">
-        <v>27</v>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>Kaley Joseph</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Deflatriots</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Patriots D/ST</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>D/ST</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>NE</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>D/ST</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
-        <v>68.70999999999999</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>Kaley Joseph</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Deflatriots</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Rico Dowdle</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>RB/WR/TE</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="H204" t="n">
-        <v>14</v>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>Kaley Joseph</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Deflatriots</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Carson Wentz</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>INJURY_RESERVE</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H205" t="n">
-        <v>30</v>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>Kaley Joseph</t>
+          <t>Alex Dodson</t>
         </is>
       </c>
     </row>

--- a/data/roster_men.xlsx
+++ b/data/roster_men.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Justin Jefferson</t>
+          <t>Nico Collins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,45 +496,45 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>95.73</v>
+        <v>57.4</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Josh Jacobs</t>
+          <t>Brian Thomas Jr.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -543,69 +543,69 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>95.65000000000001</v>
+        <v>45.37</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joe Burrow</t>
+          <t>Alvin Kamara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8.130000000000001</v>
+        <v>61.57</v>
       </c>
       <c r="H4" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Matthew Golden</t>
+          <t>Marvin Harrison Jr.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -629,36 +629,36 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>14.47</v>
+        <v>47.54</v>
       </c>
       <c r="H5" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mark Andrews</t>
+          <t>RJ Harvey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -672,41 +672,41 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43.14</v>
+        <v>16.48</v>
       </c>
       <c r="H6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Brandon Aubrey</t>
+          <t>Emeka Egbuka</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -715,41 +715,41 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>98.44</v>
+        <v>20.15</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Elic Ayomanor</t>
+          <t>Tyler Warren</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -758,26 +758,26 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.95</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jordan Love</t>
+          <t>Dak Prescott</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,12 +787,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -801,112 +801,112 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>38.2</v>
+        <v>54.99</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jahmyr Gibbs</t>
+          <t>Josh Downs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>80.93000000000001</v>
+        <v>16.48</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Deebo Samuel</t>
+          <t>Lions D/ST</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>53.71</v>
+        <v>70.67</v>
       </c>
       <c r="H11" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tetairoa McMillan</t>
+          <t>Kayshon Boutte</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -930,41 +930,41 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>60.6</v>
+        <v>15.17</v>
       </c>
       <c r="H12" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TreVeyon Henderson</t>
+          <t>Daniel Jones</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -973,41 +973,41 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>25.85</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Zach Ertz</t>
+          <t>Kimani Vidal</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1016,36 +1016,36 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>30.81</v>
+        <v>74.61</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Emanuel Wilson</t>
+          <t>Malik Washington</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1059,26 +1059,26 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>7.83</v>
       </c>
       <c r="H15" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ravens D/ST</t>
+          <t>Chiefs D/ST</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1102,84 +1102,84 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>29.32</v>
+        <v>39.41</v>
       </c>
       <c r="H16" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Vidhal Bucket</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sam Darnold</t>
+          <t>Brandon McManus</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>18.1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Simmy G</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MuzzyCompany</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Romeo Doubs</t>
+          <t>Jahmyr Gibbs</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1188,26 +1188,26 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>36.19</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Matt McIsaac</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>De'Von Achane</t>
+          <t>Derrick Henry</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1231,26 +1231,26 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>99.02</v>
+        <v>92.54000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brian Thomas Jr.</t>
+          <t>Terry McLaurin</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1260,40 +1260,40 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>45.37</v>
+        <v>25.16</v>
       </c>
       <c r="H20" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Joe Burrow</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1303,98 +1303,98 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>38.91</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>George Kittle</t>
+          <t>DJ Moore</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>77.27</v>
+        <v>35.66</v>
       </c>
       <c r="H22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Travis Hunter</t>
+          <t>Travis Kelce</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1403,26 +1403,26 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>26.21</v>
+        <v>84.16</v>
       </c>
       <c r="H23" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jordan Addison</t>
+          <t>Deebo Samuel</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1446,26 +1446,26 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>45.71</v>
+        <v>53.71</v>
       </c>
       <c r="H24" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Khalil Shakir</t>
+          <t>Keenan Allen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1489,36 +1489,36 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>35.51</v>
+        <v>67.81</v>
       </c>
       <c r="H25" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jauan Jennings</t>
+          <t>Chase McLaughlin</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1532,41 +1532,41 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>23.13</v>
+        <v>48.13</v>
       </c>
       <c r="H26" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rachaad White</t>
+          <t>Jordan Love</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1575,36 +1575,36 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>21.06</v>
+        <v>38.2</v>
       </c>
       <c r="H27" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Brian Robinson Jr.</t>
+          <t>Troy Franklin</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1618,84 +1618,84 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.96</v>
+        <v>20.41</v>
       </c>
       <c r="H28" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cameron Dicker</t>
+          <t>Rashid Shaheed</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>94.64</v>
+        <v>24.07</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tyjae Spears</t>
+          <t>Eddy Pineiro</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1704,36 +1704,36 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>12.74</v>
+        <v>56.7</v>
       </c>
       <c r="H30" t="n">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Harold Fannin Jr.</t>
+          <t>Isiah Pacheco</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1743,73 +1743,73 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>9.300000000000001</v>
+        <v>21.63</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Packers D/ST</t>
+          <t>Joe Flacco</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>65.05</v>
+        <v>15.42</v>
       </c>
       <c r="H32" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Terry McLaurin</t>
+          <t>Alec Pierce</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1819,45 +1819,45 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>25.16</v>
+        <v>3.74</v>
       </c>
       <c r="H33" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Matthew Stafford</t>
+          <t>Rams D/ST</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1867,45 +1867,45 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>29.73</v>
+        <v>71.18000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>10</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Coscia's Song Hurts My Ears</t>
+          <t>Hamlin Hamlin McGill</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Browns D/ST</t>
+          <t>Christian Watson</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1915,25 +1915,25 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>13.37</v>
+        <v>4.72</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Mike F</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1969,34 +1969,34 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Kyren Williams</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2005,26 +2005,26 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>86.65000000000001</v>
+        <v>74.69</v>
       </c>
       <c r="H37" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Breece Hall</t>
+          <t>James Cook III</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2048,84 +2048,84 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>31.38</v>
+        <v>92.28</v>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DJ Moore</t>
+          <t>TreVeyon Henderson</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>35.66</v>
+        <v>25.85</v>
       </c>
       <c r="H39" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Travis Kelce</t>
+          <t>Tetairoa McMillan</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2134,84 +2134,84 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>84.16</v>
+        <v>60.6</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Jaylen Warren</t>
+          <t>Rome Odunze</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>73.54000000000001</v>
+        <v>71.02</v>
       </c>
       <c r="H41" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Travis Etienne Jr.</t>
+          <t>Bo Nix</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2220,41 +2220,41 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>45.9</v>
+        <v>53.52</v>
       </c>
       <c r="H42" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Justin Fields</t>
+          <t>Javonte Williams</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2263,64 +2263,64 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.62</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Darnell Mooney</t>
+          <t>Cam Skattebo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.99</v>
+        <v>21.92</v>
       </c>
       <c r="H44" t="n">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2356,29 +2356,29 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vikings D/ST</t>
+          <t>Dallas Goedert</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2388,30 +2388,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>34.01</v>
+        <v>21.86</v>
       </c>
       <c r="H46" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chase McLaughlin</t>
+          <t>Harrison Butker</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2435,127 +2435,127 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>48.13</v>
+        <v>81.44</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Zach Charbonnet</t>
+          <t>Jayden Reed</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>20.87</v>
+        <v>0.27</v>
       </c>
       <c r="H48" t="n">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Rome Odunze</t>
+          <t>Harold Fannin Jr.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>71.02</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cairo Santos</t>
+          <t>Drake Maye</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2564,26 +2564,26 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>34.67</v>
+        <v>60.03</v>
       </c>
       <c r="H50" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>STEVE'S TEAM</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>49ers D/ST</t>
+          <t>Seahawks D/ST</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2593,12 +2593,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2607,31 +2607,31 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>14.04</v>
+        <v>56.88</v>
       </c>
       <c r="H51" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Matthew Haid</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Omarion Hampton</t>
+          <t>Chargers D/ST</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2641,50 +2641,50 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>12.1</v>
+        <v>57.19</v>
       </c>
       <c r="H52" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t>Maye I send you Nix Picks?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jaylen Waddle</t>
+          <t>Kyle Monangai</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2693,41 +2693,41 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>70.7</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Adam Mitko</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bo Nix</t>
+          <t>CeeDee Lamb</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2736,84 +2736,84 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>53.52</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jayden Reed</t>
+          <t>Chase Brown</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.27</v>
+        <v>79.09</v>
       </c>
       <c r="H55" t="n">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tucker Kraft</t>
+          <t>Lamar Jackson</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2822,41 +2822,41 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>74.43000000000001</v>
+        <v>69.11</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jaxson Dart</t>
+          <t>Xavier Worthy</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2865,41 +2865,41 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>43.39</v>
+        <v>57.09</v>
       </c>
       <c r="H57" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Emeka Egbuka</t>
+          <t>Breece Hall</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2908,41 +2908,41 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>20.15</v>
+        <v>31.38</v>
       </c>
       <c r="H58" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Kenneth Walker III</t>
+          <t>Jameson Williams</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2951,41 +2951,41 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>46.97</v>
+        <v>18.22</v>
       </c>
       <c r="H59" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Marvin Harrison Jr.</t>
+          <t>David Njoku</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2994,127 +2994,127 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>47.54</v>
+        <v>21.85</v>
       </c>
       <c r="H60" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Rhamondre Stevenson</t>
+          <t>Khalil Shakir</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>46.85</v>
+        <v>35.51</v>
       </c>
       <c r="H61" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chase Brown</t>
+          <t>Chris Godwin Jr.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>79.09</v>
+        <v>1.28</v>
       </c>
       <c r="H62" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kyle Monangai</t>
+          <t>Justin Fields</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3123,26 +3123,26 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8.779999999999999</v>
+        <v>6.62</v>
       </c>
       <c r="H63" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Texans D/ST</t>
+          <t>Vikings D/ST</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3152,12 +3152,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3166,36 +3166,36 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>53.29</v>
+        <v>34.01</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Colston Loveland</t>
+          <t>Rashod Bateman</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3209,26 +3209,26 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7.68</v>
+        <v>2.56</v>
       </c>
       <c r="H65" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tyler Loop</t>
+          <t>Matt Prater</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3248,45 +3248,45 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>44.07</v>
+        <v>25.08</v>
       </c>
       <c r="H66" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chimere Dike</t>
+          <t>Juwan Johnson</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3295,26 +3295,26 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.89</v>
+        <v>13.59</v>
       </c>
       <c r="H67" t="n">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>slime out vanko wit tha uzis</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Darius Slayton</t>
+          <t>Chimere Dike</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3324,12 +3324,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3338,69 +3338,69 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.3</v>
+        <v>5.89</v>
       </c>
       <c r="H68" t="n">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Timothy Kubik</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t xml:space="preserve">New Jersey Jets </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Davante Adams</t>
+          <t>Saints D/ST</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>70.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H69" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Jaime Barbosa</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Jameson Williams</t>
+          <t>Puka Nacua</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3420,131 +3420,131 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>18.22</v>
+        <v>63.77</v>
       </c>
       <c r="H70" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chris Boswell</t>
+          <t>A.J. Brown</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>83.79000000000001</v>
+        <v>25.77</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Seahawks D/ST</t>
+          <t>Trey McBride</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>56.88</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Daniel Jones</t>
+          <t>Davante Adams</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3553,41 +3553,41 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>73.45999999999999</v>
+        <v>70.87</v>
       </c>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Michael Pittman Jr.</t>
+          <t>Patrick Mahomes</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3596,69 +3596,69 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>73.43000000000001</v>
+        <v>94.27</v>
       </c>
       <c r="H74" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Wan'Dale Robinson</t>
+          <t>Tony Pollard</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>48.84</v>
+        <v>30.21</v>
       </c>
       <c r="H75" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cam Skattebo</t>
+          <t>Jacory Croskey-Merritt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3668,55 +3668,55 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>21.92</v>
+        <v>35.5</v>
       </c>
       <c r="H76" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Derrick Henry</t>
+          <t>Matthew Golden</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3725,36 +3725,36 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>92.54000000000001</v>
+        <v>14.47</v>
       </c>
       <c r="H77" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Jacory Croskey-Merritt</t>
+          <t>Keon Coleman</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3768,26 +3768,26 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>35.5</v>
+        <v>14.45</v>
       </c>
       <c r="H78" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kyle Pitts Sr.</t>
+          <t>Hunter Henry</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3797,55 +3797,55 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>40.17</v>
+        <v>33.03</v>
       </c>
       <c r="H79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Chris Olave</t>
+          <t>Jared Goff</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3854,79 +3854,79 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>70.01000000000001</v>
+        <v>20.05</v>
       </c>
       <c r="H80" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Oronde Gadsden II</t>
+          <t>Eagles D/ST</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>53.57</v>
+        <v>36.21</v>
       </c>
       <c r="H81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C.J. Stroud</t>
+          <t>Jake Elliott</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3940,84 +3940,84 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>18.64</v>
+        <v>42.09</v>
       </c>
       <c r="H82" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tre Tucker</t>
+          <t>Packers D/ST</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.1</v>
+        <v>65.05</v>
       </c>
       <c r="H83" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kareem Hunt</t>
+          <t>Wil Lutz</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4026,36 +4026,36 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>19.21</v>
+        <v>33.78</v>
       </c>
       <c r="H84" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Time To Die</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Brashard Smith</t>
+          <t>Marvin Mims Jr.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4065,30 +4065,30 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>3.57</v>
       </c>
       <c r="H85" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Steven Panagakos</t>
+          <t>Clayton Acheson</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Amon-Ra St. Brown</t>
+          <t>Justin Jefferson</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4112,84 +4112,84 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>78.75</v>
+        <v>95.73</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jayden Daniels</t>
+          <t>Bucky Irving</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>36.1</v>
+        <v>11.23</v>
       </c>
       <c r="H87" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tyler Warren</t>
+          <t>Jayden Daniels</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4198,41 +4198,41 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>89.40000000000001</v>
+        <v>36.1</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Bhayshul Tuten</t>
+          <t>George Kittle</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4241,69 +4241,69 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>77.27</v>
       </c>
       <c r="H89" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Quinshon Judkins</t>
+          <t>George Pickens</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>16.99</v>
+        <v>82.62</v>
       </c>
       <c r="H90" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Brandon Aiyuk</t>
+          <t>Jakobi Meyers</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4313,50 +4313,50 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.08</v>
+        <v>12.44</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jordan Mason</t>
+          <t>Cooper Kupp</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4370,26 +4370,26 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>20.55</v>
+        <v>12.3</v>
       </c>
       <c r="H92" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CeeDee Lamb</t>
+          <t>Michael Pittman Jr.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4399,12 +4399,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4413,36 +4413,36 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>94.26000000000001</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Calvin Ridley</t>
+          <t>Jordan Mason</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4452,45 +4452,45 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>7.19</v>
+        <v>20.55</v>
       </c>
       <c r="H94" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Eddy Pineiro</t>
+          <t>J.J. McCarthy</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4499,127 +4499,127 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>56.7</v>
+        <v>2.72</v>
       </c>
       <c r="H95" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Aaron Jones Sr.</t>
+          <t>Texans D/ST</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>19.37</v>
+        <v>53.29</v>
       </c>
       <c r="H96" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>A.J. Brown</t>
+          <t>Brandon Aubrey</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>25.77</v>
+        <v>98.44</v>
       </c>
       <c r="H97" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tez Johnson</t>
+          <t>Kenneth Gainwell</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4628,69 +4628,69 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.57</v>
+        <v>17.76</v>
       </c>
       <c r="H98" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Rams D/ST</t>
+          <t>Tre Tucker</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>71.18000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="H99" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ollie Gordon II</t>
+          <t>Bam Knight</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4700,12 +4700,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4714,26 +4714,26 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.27</v>
+        <v>30.55</v>
       </c>
       <c r="H100" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Nick Chubb</t>
+          <t>Tank Bigsby</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4743,12 +4743,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4757,21 +4757,21 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>16.29</v>
+        <v>0.99</v>
       </c>
       <c r="H101" t="n">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>The Silence AMONG The LAMBS</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4807,34 +4807,34 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Matthew Coscia</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Brock Bowers</t>
+          <t>Sam Darnold</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4843,84 +4843,84 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>52.98</v>
+        <v>18.1</v>
       </c>
       <c r="H103" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Nikolai Osadtsia</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jaxon Smith-Njigba</t>
+          <t>Saquon Barkley</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>78.64</v>
+        <v>38.37</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Dak Prescott</t>
+          <t>Brock Bowers</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4929,26 +4929,26 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>54.99</v>
+        <v>52.98</v>
       </c>
       <c r="H105" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tyler Allgeier</t>
+          <t>Kenneth Walker III</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4958,12 +4958,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4972,79 +4972,79 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.41</v>
+        <v>46.97</v>
       </c>
       <c r="H106" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Brock Purdy</t>
+          <t>Mike Evans</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>16.16</v>
+        <v>7.31</v>
       </c>
       <c r="H107" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Drake London</t>
+          <t>Aaron Jones Sr.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5054,73 +5054,73 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>75.33</v>
+        <v>19.37</v>
       </c>
       <c r="H108" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RJ Harvey</t>
+          <t>Kyler Murray</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>16.48</v>
+        <v>26.87</v>
       </c>
       <c r="H109" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mike Evans</t>
+          <t>Jordan Addison</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5130,83 +5130,83 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>7.31</v>
+        <v>45.71</v>
       </c>
       <c r="H110" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Alvin Kamara</t>
+          <t>Caleb Williams</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>61.57</v>
+        <v>39.42</v>
       </c>
       <c r="H111" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Kenneth Gainwell</t>
+          <t>Zach Charbonnet</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5230,26 +5230,26 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>17.76</v>
+        <v>20.87</v>
       </c>
       <c r="H112" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Saquon Barkley</t>
+          <t>Travis Etienne Jr.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5259,98 +5259,98 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>38.37</v>
+        <v>45.9</v>
       </c>
       <c r="H113" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ka'imi Fairbairn</t>
+          <t>Steelers D/ST</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>30.71</v>
+        <v>39.22</v>
       </c>
       <c r="H114" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cade Otton</t>
+          <t>Chris Boswell</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5359,84 +5359,84 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>9.460000000000001</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="H115" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Colts D/ST</t>
+          <t>Quentin Johnston</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>64.84</v>
+        <v>44.46</v>
       </c>
       <c r="H116" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Chuba Hubbard</t>
+          <t>Elic Ayomanor</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5445,79 +5445,79 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>35.97</v>
+        <v>5.95</v>
       </c>
       <c r="H117" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Zay Flowers</t>
+          <t>Giants D/ST</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>76.87</v>
+        <v>6.95</v>
       </c>
       <c r="H118" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>It's Time</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Christian Watson</t>
+          <t>Zach Ertz</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5527,45 +5527,45 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.72</v>
+        <v>30.81</v>
       </c>
       <c r="H119" t="n">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Chris Vanko</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Patrick Mahomes</t>
+          <t>Samaje Perine</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5574,26 +5574,26 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>94.27</v>
+        <v>5.59</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>D'Andre Swift</t>
+          <t>Ashton Jeanty</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5603,88 +5603,88 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>79.31999999999999</v>
+        <v>71.73</v>
       </c>
       <c r="H121" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>David Njoku</t>
+          <t>Drake London</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>21.85</v>
+        <v>75.33</v>
       </c>
       <c r="H122" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Dallas Goedert</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5703,41 +5703,41 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>21.86</v>
+        <v>38.91</v>
       </c>
       <c r="H123" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Jerry Jeudy</t>
+          <t>Chuba Hubbard</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5746,41 +5746,41 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>12.15</v>
+        <v>35.97</v>
       </c>
       <c r="H124" t="n">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ashton Jeanty</t>
+          <t>Jerry Jeudy</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5789,26 +5789,26 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>71.73</v>
+        <v>12.15</v>
       </c>
       <c r="H125" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Xavier Worthy</t>
+          <t>Jaylen Waddle</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5818,12 +5818,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5832,41 +5832,41 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>57.09</v>
+        <v>70.7</v>
       </c>
       <c r="H126" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Quentin Johnston</t>
+          <t>Mark Andrews</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5875,84 +5875,84 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>44.46</v>
+        <v>43.14</v>
       </c>
       <c r="H127" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Kyren Williams</t>
+          <t>Ricky Pearsall</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>74.69</v>
+        <v>4.2</v>
       </c>
       <c r="H128" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cooper Kupp</t>
+          <t>Jake Ferguson</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5961,26 +5961,26 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>12.3</v>
+        <v>79.19</v>
       </c>
       <c r="H129" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Andy Borregales</t>
+          <t>Jake Bates</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5990,12 +5990,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6004,69 +6004,69 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>15.62</v>
+        <v>58.94</v>
       </c>
       <c r="H130" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Bengals D/ST</t>
+          <t>Michael Penix Jr.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>5.97</v>
+        <v>2.41</v>
       </c>
       <c r="H131" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Troy Franklin</t>
+          <t>Calvin Austin III</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6090,41 +6090,41 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>20.41</v>
+        <v>2.68</v>
       </c>
       <c r="H132" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Jonnu Smith</t>
+          <t>JuJu Smith-Schuster</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6133,36 +6133,36 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>7.16</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Brogerella</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DeVonta Smith</t>
+          <t>Jaguars D/ST</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6172,45 +6172,45 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>24.21</v>
+        <v>42.21</v>
       </c>
       <c r="H134" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Braeden Twomey</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Trey McBride</t>
+          <t>Kareem Hunt</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -6219,31 +6219,31 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>79.68000000000001</v>
+        <v>19.21</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lamar Jackson</t>
+          <t>Tyler Loop</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -6262,69 +6262,69 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>69.11</v>
+        <v>44.07</v>
       </c>
       <c r="H136" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ricky Pearsall</t>
+          <t>Jets D/ST</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.2</v>
+        <v>8.23</v>
       </c>
       <c r="H137" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Rashee Rice</t>
+          <t>Amon-Ra St. Brown</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6348,69 +6348,69 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>82.73999999999999</v>
+        <v>78.75</v>
       </c>
       <c r="H138" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Josh Downs</t>
+          <t>De'Von Achane</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>16.48</v>
+        <v>99.02</v>
       </c>
       <c r="H139" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Trey Benson</t>
+          <t>Omarion Hampton</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6434,41 +6434,41 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>12.1</v>
       </c>
       <c r="H140" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Javonte Williams</t>
+          <t>Jaxon Smith-Njigba</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -6477,36 +6477,36 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>84.98999999999999</v>
+        <v>78.64</v>
       </c>
       <c r="H141" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Isaiah Likely</t>
+          <t>Courtland Sutton</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6520,84 +6520,84 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.71</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H142" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Patriots D/ST</t>
+          <t>Travis Hunter</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>68.70999999999999</v>
+        <v>26.21</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Bijan Robinson</t>
+          <t>Evan Engram</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6606,26 +6606,26 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>98.23</v>
+        <v>28.44</v>
       </c>
       <c r="H144" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DK Metcalf</t>
+          <t>Rashee Rice</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6635,12 +6635,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6649,69 +6649,69 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>86.25</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Chris Godwin Jr.</t>
+          <t>Broncos D/ST</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.28</v>
+        <v>81.25</v>
       </c>
       <c r="H146" t="n">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Kimani Vidal</t>
+          <t>Quinshon Judkins</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6721,55 +6721,55 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>74.61</v>
+        <v>16.99</v>
       </c>
       <c r="H147" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Kirk Cousins</t>
+          <t>Woody Marks</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6778,41 +6778,41 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.24</v>
+        <v>22.05</v>
       </c>
       <c r="H148" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Bam Knight</t>
+          <t>Jaxson Dart</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6821,36 +6821,36 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>30.55</v>
+        <v>43.39</v>
       </c>
       <c r="H149" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Dylan Sampson</t>
+          <t>Aaron Rodgers</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6864,41 +6864,41 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.77</v>
+        <v>16.17</v>
       </c>
       <c r="H150" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Pulse check</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Jason Myers</t>
+          <t>Oronde Gadsden II</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6907,41 +6907,41 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>21.49</v>
+        <v>53.57</v>
       </c>
       <c r="H151" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Christian McCaffrey</t>
+          <t>Michael Badgley</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6950,79 +6950,79 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>99.61</v>
+        <v>73.13</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>James Cook III</t>
+          <t>Buccaneers D/ST</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>92.28</v>
+        <v>14.52</v>
       </c>
       <c r="H153" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Baker Mayfield</t>
+          <t>Tyjae Spears</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7036,41 +7036,41 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>33.3</v>
+        <v>12.74</v>
       </c>
       <c r="H154" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Sam LaPorta</t>
+          <t>Christian McCaffrey</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7079,69 +7079,69 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>58.18</v>
+        <v>99.61</v>
       </c>
       <c r="H155" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Rashid Shaheed</t>
+          <t>Jonathan Taylor</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>24.07</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H156" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Justin Herbert</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7165,41 +7165,41 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>70.48</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="H157" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Jake Ferguson</t>
+          <t>Zay Flowers</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -7208,36 +7208,36 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>79.19</v>
+        <v>76.87</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Hollywood Brown</t>
+          <t>Sam LaPorta</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7247,45 +7247,45 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.73</v>
+        <v>58.18</v>
       </c>
       <c r="H159" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Harrison Butker</t>
+          <t>DeVonta Smith</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7294,69 +7294,69 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>81.44</v>
+        <v>24.21</v>
       </c>
       <c r="H160" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Lions D/ST</t>
+          <t>Tyrone Tracy Jr.</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>70.67</v>
+        <v>47.11</v>
       </c>
       <c r="H161" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Courtland Sutton</t>
+          <t>Stefon Diggs</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7376,40 +7376,40 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>66.09999999999999</v>
+        <v>47.68</v>
       </c>
       <c r="H162" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tony Pollard</t>
+          <t>Justin Herbert</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7419,30 +7419,30 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>30.21</v>
+        <v>70.48</v>
       </c>
       <c r="H163" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Isiah Pacheco</t>
+          <t>Trey Benson</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7452,98 +7452,98 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>21.63</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tee Higgins</t>
+          <t>Kyle Pitts Sr.</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>73.04000000000001</v>
+        <v>40.17</v>
       </c>
       <c r="H165" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>David Montgomery</t>
+          <t>Cameron Dicker</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -7552,26 +7552,26 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>47.36</v>
+        <v>94.64</v>
       </c>
       <c r="H166" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Mommy team</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Bears D/ST</t>
+          <t>Colts D/ST</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -7595,41 +7595,41 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>16.04</v>
+        <v>64.84</v>
       </c>
       <c r="H167" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Jackson Noto</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Jonathan Taylor</t>
+          <t>Romeo Doubs</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -7638,79 +7638,79 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>99.40000000000001</v>
+        <v>36.19</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Garrett Wilson</t>
+          <t>Browns D/ST</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>13.61</v>
+        <v>13.37</v>
       </c>
       <c r="H169" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>T.J. Hockenson</t>
+          <t>Tez Johnson</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7724,26 +7724,26 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>50.15</v>
+        <v>3.57</v>
       </c>
       <c r="H170" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Jakobi Meyers</t>
+          <t>Malik Nabers</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7753,40 +7753,40 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>12.44</v>
+        <v>14.06</v>
       </c>
       <c r="H171" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Kyler Murray</t>
+          <t>Baker Mayfield</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7796,141 +7796,141 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>26.87</v>
+        <v>33.3</v>
       </c>
       <c r="H172" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Caleb Williams</t>
+          <t>Ladd McConkey</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>39.42</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="H173" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Broncos D/ST</t>
+          <t>Garrett Wilson</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>81.25</v>
+        <v>13.61</v>
       </c>
       <c r="H174" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Hunter Henry</t>
+          <t>David Montgomery</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7939,41 +7939,41 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>33.03</v>
+        <v>47.36</v>
       </c>
       <c r="H175" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Keenan Allen</t>
+          <t>T.J. Hockenson</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7982,41 +7982,41 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>67.81</v>
+        <v>50.15</v>
       </c>
       <c r="H176" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Keon Coleman</t>
+          <t>Jaylen Warren</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -8025,26 +8025,26 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>14.45</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="H177" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ladd McConkey</t>
+          <t>Chris Olave</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8064,30 +8064,30 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>88.18000000000001</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="H178" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>J.K. Dobbins</t>
+          <t>Rhamondre Stevenson</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8097,55 +8097,55 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>56.75</v>
+        <v>46.85</v>
       </c>
       <c r="H179" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Juwan Johnson</t>
+          <t>Jauan Jennings</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -8154,26 +8154,26 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>13.59</v>
+        <v>23.13</v>
       </c>
       <c r="H180" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Justice Hill</t>
+          <t>Rachaad White</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8197,36 +8197,36 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.8</v>
+        <v>21.06</v>
       </c>
       <c r="H181" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Joe Flacco</t>
+          <t>Tyler Allgeier</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8236,30 +8236,30 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>15.42</v>
+        <v>4.41</v>
       </c>
       <c r="H182" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Punxsutawney Fraud</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Michael Badgley</t>
+          <t>Ka'imi Fairbairn</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8283,127 +8283,127 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>73.13</v>
+        <v>30.71</v>
       </c>
       <c r="H183" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Puka Nacua</t>
+          <t>Commanders D/ST</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>63.77</v>
+        <v>2.95</v>
       </c>
       <c r="H184" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Nico Collins</t>
+          <t>Cade Otton</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>57.4</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="H185" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>George Pickens</t>
+          <t>Ryan Fitzgerald</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -8412,36 +8412,36 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>82.62</v>
+        <v>5.11</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Stefon Diggs</t>
+          <t>Panthers D/ST</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8451,30 +8451,30 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>47.68</v>
+        <v>3.81</v>
       </c>
       <c r="H187" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Drake Maye</t>
+          <t>Trevor Lawrence</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8498,26 +8498,26 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>60.03</v>
+        <v>8.59</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Joe Mixon</t>
+          <t>Bijan Robinson</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8527,98 +8527,98 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.6</v>
+        <v>98.23</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Nick Folk</t>
+          <t>Josh Jacobs</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>7.17</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="H190" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Rico Dowdle</t>
+          <t>Tee Higgins</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -8627,41 +8627,41 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>47.6</v>
+        <v>73.04000000000001</v>
       </c>
       <c r="H191" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Mason Taylor</t>
+          <t>DK Metcalf</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -8670,26 +8670,26 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.72</v>
+        <v>86.25</v>
       </c>
       <c r="H192" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Bucky Irving</t>
+          <t>D'Andre Swift</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8709,40 +8709,40 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>11.23</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="H193" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Isaiah Davis</t>
+          <t>Calvin Ridley</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8752,73 +8752,73 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.57</v>
+        <v>7.19</v>
       </c>
       <c r="H194" t="n">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tyrone Tracy Jr.</t>
+          <t>Brock Purdy</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>47.11</v>
+        <v>16.16</v>
       </c>
       <c r="H195" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Woody Marks</t>
+          <t>J.K. Dobbins</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8842,127 +8842,127 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>22.05</v>
+        <v>56.75</v>
       </c>
       <c r="H196" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Jaguars D/ST</t>
+          <t>Tucker Kraft</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>42.21</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="H197" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AJ Barner</t>
+          <t>Darnell Mooney</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.31</v>
+        <v>7.99</v>
       </c>
       <c r="H198" t="n">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Jake Bates</t>
+          <t>Nick Chubb</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8971,26 +8971,26 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>58.94</v>
+        <v>16.29</v>
       </c>
       <c r="H199" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Alex Dodson</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Final Boss</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Kayshon Boutte</t>
+          <t>Wan'Dale Robinson</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9000,28 +9000,243 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="H200" t="n">
+        <v>19</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Kaley Joseph</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Deflatriots</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Matthew Stafford</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>LAR</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="H201" t="n">
+        <v>10</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Kaley Joseph</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Deflatriots</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Cairo Santos</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="H202" t="n">
+        <v>27</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Kaley Joseph</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Deflatriots</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Patriots D/ST</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>D/ST</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="H200" t="n">
-        <v>23</v>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>Alex Dodson</t>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>D/ST</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Kaley Joseph</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Deflatriots</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Rico Dowdle</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>RB/WR/TE</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="H204" t="n">
+        <v>14</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Kaley Joseph</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Deflatriots</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Carson Wentz</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>INJURY_RESERVE</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H205" t="n">
+        <v>30</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>

--- a/data/roster_men.xlsx
+++ b/data/roster_men.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,14 +496,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>57.4</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>45.37</v>
+        <v>56.52</v>
       </c>
       <c r="H3" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -582,14 +582,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>61.57</v>
+        <v>51.78</v>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>47.54</v>
+        <v>58.11</v>
       </c>
       <c r="H5" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>16.48</v>
+        <v>17.6</v>
       </c>
       <c r="H6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>20.15</v>
+        <v>27.93</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>89.40000000000001</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>54.99</v>
+        <v>44.7</v>
       </c>
       <c r="H9" t="n">
         <v>8</v>
@@ -840,14 +840,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>16.48</v>
+        <v>18.42</v>
       </c>
       <c r="H10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>70.67</v>
+        <v>81.8</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -926,14 +926,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>15.17</v>
+        <v>12.5</v>
       </c>
       <c r="H12" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -973,10 +973,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>73.45999999999999</v>
+        <v>71.06</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>74.61</v>
+        <v>71.23999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.83</v>
+        <v>8.07</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>39.41</v>
+        <v>28.69</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>9.970000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="H17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>80.93000000000001</v>
+        <v>94.94</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>92.54000000000001</v>
+        <v>93.39</v>
       </c>
       <c r="H19" t="n">
         <v>19</v>
@@ -1270,14 +1270,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>25.16</v>
+        <v>12.21</v>
       </c>
       <c r="H20" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8.130000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="H21" t="n">
         <v>41</v>
@@ -1356,14 +1356,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>35.66</v>
+        <v>40.39</v>
       </c>
       <c r="H22" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>84.16</v>
+        <v>73.34</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>53.71</v>
+        <v>60.26</v>
       </c>
       <c r="H24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>67.81</v>
+        <v>63.91</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>48.13</v>
+        <v>30.34</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>38.2</v>
+        <v>38.01</v>
       </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1618,10 +1618,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>20.41</v>
+        <v>21.57</v>
       </c>
       <c r="H28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1657,14 +1657,14 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>24.07</v>
+        <v>16.93</v>
       </c>
       <c r="H29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>56.7</v>
+        <v>59.67</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1738,19 +1738,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>21.63</v>
+        <v>8.27</v>
       </c>
       <c r="H31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1766,17 +1766,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Joe Flacco</t>
+          <t>Alec Pierce</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1786,14 +1786,14 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>15.42</v>
+        <v>4.99</v>
       </c>
       <c r="H32" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1809,34 +1809,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alec Pierce</t>
+          <t>Rams D/ST</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.74</v>
+        <v>80.06999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1852,34 +1852,34 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Rams D/ST</t>
+          <t>Christian Watson</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>71.18000000000001</v>
+        <v>6.29</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1895,17 +1895,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Christian Watson</t>
+          <t>Jacoby Brissett</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1915,14 +1915,14 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.72</v>
+        <v>9.19</v>
       </c>
       <c r="H35" t="n">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>99.34</v>
+        <v>79.16</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>74.69</v>
+        <v>89.31</v>
       </c>
       <c r="H37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>92.28</v>
+        <v>94.34</v>
       </c>
       <c r="H38" t="n">
         <v>7</v>
@@ -2091,10 +2091,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>25.85</v>
+        <v>38.76</v>
       </c>
       <c r="H39" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>60.6</v>
+        <v>56.67</v>
       </c>
       <c r="H40" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2173,14 +2173,14 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>71.02</v>
+        <v>68.02</v>
       </c>
       <c r="H41" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>53.52</v>
+        <v>51.09</v>
       </c>
       <c r="H42" t="n">
         <v>5</v>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>84.98999999999999</v>
+        <v>66.12</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>21.92</v>
+        <v>7.93</v>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>24.87</v>
+        <v>29.04</v>
       </c>
       <c r="H45" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>21.86</v>
+        <v>16.68</v>
       </c>
       <c r="H46" t="n">
         <v>6</v>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>81.44</v>
+        <v>79.63</v>
       </c>
       <c r="H47" t="n">
         <v>12</v>
@@ -2481,7 +2481,7 @@
         <v>0.27</v>
       </c>
       <c r="H48" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>9.300000000000001</v>
+        <v>6.95</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>60.03</v>
+        <v>62.42</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>56.88</v>
+        <v>67.98</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2650,10 +2650,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>57.19</v>
+        <v>63.76</v>
       </c>
       <c r="H52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>8.779999999999999</v>
+        <v>47.69</v>
       </c>
       <c r="H53" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>94.26000000000001</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>79.09</v>
+        <v>62.95</v>
       </c>
       <c r="H55" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2822,10 +2822,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>69.11</v>
+        <v>79.03</v>
       </c>
       <c r="H56" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>57.09</v>
+        <v>43.65</v>
       </c>
       <c r="H57" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>31.38</v>
+        <v>30.02</v>
       </c>
       <c r="H58" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>18.22</v>
+        <v>26.74</v>
       </c>
       <c r="H59" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>21.85</v>
+        <v>17.83</v>
       </c>
       <c r="H60" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>35.51</v>
+        <v>37.02</v>
       </c>
       <c r="H61" t="n">
         <v>33</v>
@@ -3076,14 +3076,14 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.28</v>
+        <v>2.15</v>
       </c>
       <c r="H62" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.62</v>
+        <v>4.98</v>
       </c>
       <c r="H63" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>34.01</v>
+        <v>29.48</v>
       </c>
       <c r="H64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="H65" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3248,14 +3248,14 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>25.08</v>
+        <v>24.96</v>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>13.59</v>
+        <v>12.89</v>
       </c>
       <c r="H67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3338,10 +3338,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.89</v>
+        <v>7.09</v>
       </c>
       <c r="H68" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="H69" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3424,10 +3424,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>63.77</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3463,14 +3463,14 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>25.77</v>
+        <v>27.74</v>
       </c>
       <c r="H71" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>79.68000000000001</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>70.87</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>94.27</v>
+        <v>81.25</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -3635,14 +3635,14 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>30.21</v>
+        <v>25.66</v>
       </c>
       <c r="H75" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>35.5</v>
+        <v>30.63</v>
       </c>
       <c r="H76" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3716,19 +3716,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>14.47</v>
+        <v>10.93</v>
       </c>
       <c r="H77" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3768,10 +3768,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>14.45</v>
+        <v>12.77</v>
       </c>
       <c r="H78" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>33.03</v>
+        <v>31.4</v>
       </c>
       <c r="H79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3854,10 +3854,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>20.05</v>
+        <v>27.28</v>
       </c>
       <c r="H80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>36.21</v>
+        <v>19.14</v>
       </c>
       <c r="H81" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -3940,10 +3940,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>42.09</v>
+        <v>24.25</v>
       </c>
       <c r="H82" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -3983,10 +3983,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>65.05</v>
+        <v>67.67</v>
       </c>
       <c r="H83" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -4026,10 +4026,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>33.78</v>
+        <v>31.22</v>
       </c>
       <c r="H84" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.57</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4112,10 +4112,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>95.73</v>
+        <v>96.69</v>
       </c>
       <c r="H86" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4146,19 +4146,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>11.23</v>
+        <v>20.51</v>
       </c>
       <c r="H87" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4189,19 +4189,19 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>36.1</v>
+        <v>40.99</v>
       </c>
       <c r="H88" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4241,10 +4241,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>77.27</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>82.62</v>
+        <v>63.09</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -4327,10 +4327,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>12.44</v>
+        <v>19.04</v>
       </c>
       <c r="H91" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4366,14 +4366,14 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>12.3</v>
+        <v>7</v>
       </c>
       <c r="H92" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>73.43000000000001</v>
+        <v>75.73</v>
       </c>
       <c r="H93" t="n">
         <v>6</v>
@@ -4456,10 +4456,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>20.55</v>
+        <v>13.54</v>
       </c>
       <c r="H94" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -4475,34 +4475,34 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>J.J. McCarthy</t>
+          <t>Texans D/ST</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.72</v>
+        <v>55.26</v>
       </c>
       <c r="H95" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -4518,34 +4518,34 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Texans D/ST</t>
+          <t>Brandon Aubrey</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>53.29</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -4561,22 +4561,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Brandon Aubrey</t>
+          <t>Kenneth Gainwell</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4585,10 +4585,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>98.44</v>
+        <v>16.16</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kenneth Gainwell</t>
+          <t>Bam Knight</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4614,12 +4614,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4628,10 +4628,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>17.76</v>
+        <v>32.88</v>
       </c>
       <c r="H98" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -4647,17 +4647,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tre Tucker</t>
+          <t>Tank Bigsby</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4671,10 +4671,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -4690,22 +4690,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Bam Knight</t>
+          <t>Theo Johnson</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>30.55</v>
+        <v>21.52</v>
       </c>
       <c r="H100" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -4733,22 +4733,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tank Bigsby</t>
+          <t>Sam Darnold</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4757,10 +4757,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.99</v>
+        <v>24.9</v>
       </c>
       <c r="H101" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -4771,70 +4771,70 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Theo Johnson</t>
+          <t>Saquon Barkley</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>17.24</v>
+        <v>35.55</v>
       </c>
       <c r="H102" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEAT SIMEON GURETSE </t>
+          <t>Sundaddies</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sam Darnold</t>
+          <t>Brock Bowers</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4843,14 +4843,14 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>18.1</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="H103" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Nikolai Osadtsia</t>
+          <t>Sahit Sudadi</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Saquon Barkley</t>
+          <t>Kenneth Walker III</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4882,14 +4882,14 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>38.37</v>
+        <v>56.93</v>
       </c>
       <c r="H104" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -4905,34 +4905,34 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Brock Bowers</t>
+          <t>Mike Evans</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>52.98</v>
+        <v>6.83</v>
       </c>
       <c r="H105" t="n">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Kenneth Walker III</t>
+          <t>Aaron Jones Sr.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4958,24 +4958,24 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>46.97</v>
+        <v>25.35</v>
       </c>
       <c r="H106" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -4991,34 +4991,34 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mike Evans</t>
+          <t>Kyler Murray</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>7.31</v>
+        <v>14.7</v>
       </c>
       <c r="H107" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -5034,12 +5034,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Aaron Jones Sr.</t>
+          <t>Jordan Addison</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5058,10 +5058,10 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>19.37</v>
+        <v>44.92</v>
       </c>
       <c r="H108" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Kyler Murray</t>
+          <t>Caleb Williams</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5097,14 +5097,14 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>26.87</v>
+        <v>43.14</v>
       </c>
       <c r="H109" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -5120,22 +5120,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Jordan Addison</t>
+          <t>Zach Charbonnet</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5144,10 +5144,10 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>45.71</v>
+        <v>26.01</v>
       </c>
       <c r="H110" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -5163,22 +5163,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Caleb Williams</t>
+          <t>Travis Etienne Jr.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5187,10 +5187,10 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>39.42</v>
+        <v>56.78</v>
       </c>
       <c r="H111" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -5206,17 +5206,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Zach Charbonnet</t>
+          <t>Steelers D/ST</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5226,14 +5226,14 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>20.87</v>
+        <v>35.29</v>
       </c>
       <c r="H112" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -5249,22 +5249,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Travis Etienne Jr.</t>
+          <t>Chris Boswell</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5273,10 +5273,10 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>45.9</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="H113" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -5292,34 +5292,34 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Steelers D/ST</t>
+          <t>Quentin Johnston</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>39.22</v>
+        <v>42.52</v>
       </c>
       <c r="H114" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -5335,22 +5335,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Chris Boswell</t>
+          <t>Elic Ayomanor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>83.79000000000001</v>
+        <v>4.12</v>
       </c>
       <c r="H115" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -5378,34 +5378,34 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Quentin Johnston</t>
+          <t>Giants D/ST</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>44.46</v>
+        <v>6.98</v>
       </c>
       <c r="H116" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -5421,17 +5421,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Elic Ayomanor</t>
+          <t>Zach Ertz</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5445,10 +5445,10 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.95</v>
+        <v>31.86</v>
       </c>
       <c r="H117" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -5464,34 +5464,34 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Giants D/ST</t>
+          <t>Samaje Perine</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6.95</v>
+        <v>7.1</v>
       </c>
       <c r="H118" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -5502,27 +5502,27 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Zach Ertz</t>
+          <t>Ashton Jeanty</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5531,41 +5531,41 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>30.81</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="H119" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sundaddies</t>
+          <t>Team Tatel</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Samaje Perine</t>
+          <t>Drake London</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5574,14 +5574,14 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.59</v>
+        <v>86.64</v>
       </c>
       <c r="H120" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Sahit Sudadi</t>
+          <t>Hari Patel</t>
         </is>
       </c>
     </row>
@@ -5593,17 +5593,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ashton Jeanty</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5617,10 +5617,10 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>71.73</v>
+        <v>36.48</v>
       </c>
       <c r="H121" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -5636,34 +5636,34 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Drake London</t>
+          <t>Chuba Hubbard</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>75.33</v>
+        <v>30.16</v>
       </c>
       <c r="H122" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -5679,22 +5679,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Jerry Jeudy</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5703,10 +5703,10 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>38.91</v>
+        <v>6.91</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -5722,22 +5722,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Chuba Hubbard</t>
+          <t>Jaylen Waddle</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>35.97</v>
+        <v>71.83</v>
       </c>
       <c r="H124" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -5765,22 +5765,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Jerry Jeudy</t>
+          <t>Mark Andrews</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5789,10 +5789,10 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>12.15</v>
+        <v>45.41</v>
       </c>
       <c r="H125" t="n">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Jaylen Waddle</t>
+          <t>Ricky Pearsall</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5818,24 +5818,24 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>70.7</v>
+        <v>2.22</v>
       </c>
       <c r="H126" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mark Andrews</t>
+          <t>Jake Ferguson</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5861,12 +5861,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5875,10 +5875,10 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>43.14</v>
+        <v>61.92</v>
       </c>
       <c r="H127" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -5894,34 +5894,34 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ricky Pearsall</t>
+          <t>Jake Bates</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.2</v>
+        <v>70.44</v>
       </c>
       <c r="H128" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -5937,22 +5937,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Jake Ferguson</t>
+          <t>Michael Penix Jr.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5961,10 +5961,10 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>79.19</v>
+        <v>2.87</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -5980,22 +5980,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Jake Bates</t>
+          <t>Calvin Austin III</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6004,10 +6004,10 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>58.94</v>
+        <v>4.19</v>
       </c>
       <c r="H130" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -6023,17 +6023,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Michael Penix Jr.</t>
+          <t>JuJu Smith-Schuster</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6043,14 +6043,14 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.41</v>
+        <v>0.64</v>
       </c>
       <c r="H131" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -6066,34 +6066,34 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Calvin Austin III</t>
+          <t>Jaguars D/ST</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.68</v>
+        <v>55.39</v>
       </c>
       <c r="H132" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -6109,12 +6109,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>JuJu Smith-Schuster</t>
+          <t>Kareem Hunt</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6133,10 +6133,10 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>21.32</v>
       </c>
       <c r="H133" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -6152,34 +6152,34 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jaguars D/ST</t>
+          <t>Tyler Loop</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>42.21</v>
+        <v>45.95</v>
       </c>
       <c r="H134" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -6195,34 +6195,34 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Kareem Hunt</t>
+          <t>Jets D/ST</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>19.21</v>
+        <v>5.51</v>
       </c>
       <c r="H135" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -6233,27 +6233,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tyler Loop</t>
+          <t>Amon-Ra St. Brown</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -6262,57 +6262,57 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>44.07</v>
+        <v>93.98</v>
       </c>
       <c r="H136" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Team Tatel</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Jets D/ST</t>
+          <t>De'Von Achane</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>8.23</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="H137" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Hari Patel</t>
+          <t>Matt Murawski</t>
         </is>
       </c>
     </row>
@@ -6324,34 +6324,34 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Amon-Ra St. Brown</t>
+          <t>Omarion Hampton</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>78.75</v>
+        <v>11.77</v>
       </c>
       <c r="H138" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -6367,22 +6367,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>De'Von Achane</t>
+          <t>Jaxon Smith-Njigba</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6391,10 +6391,10 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>99.02</v>
+        <v>93.13</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -6410,34 +6410,34 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Omarion Hampton</t>
+          <t>Courtland Sutton</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>12.1</v>
+        <v>63.94</v>
       </c>
       <c r="H140" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Jaxon Smith-Njigba</t>
+          <t>Travis Hunter</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6463,24 +6463,24 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>78.64</v>
+        <v>7.77</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -6496,12 +6496,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Courtland Sutton</t>
+          <t>Evan Engram</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6520,10 +6520,10 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>66.09999999999999</v>
+        <v>24.36</v>
       </c>
       <c r="H142" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Travis Hunter</t>
+          <t>Rashee Rice</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6563,10 +6563,10 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>26.21</v>
+        <v>59.78</v>
       </c>
       <c r="H143" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -6582,12 +6582,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Evan Engram</t>
+          <t>Broncos D/ST</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6597,19 +6597,19 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>28.44</v>
+        <v>86.09</v>
       </c>
       <c r="H144" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -6625,34 +6625,34 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Rashee Rice</t>
+          <t>Quinshon Judkins</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>82.73999999999999</v>
+        <v>23.24</v>
       </c>
       <c r="H145" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -6668,34 +6668,34 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Broncos D/ST</t>
+          <t>Woody Marks</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>81.25</v>
+        <v>18.29</v>
       </c>
       <c r="H146" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -6711,34 +6711,34 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Quinshon Judkins</t>
+          <t>Jaxson Dart</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>16.99</v>
+        <v>49.92</v>
       </c>
       <c r="H147" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -6754,22 +6754,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Woody Marks</t>
+          <t>Aaron Rodgers</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6778,10 +6778,10 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>22.05</v>
+        <v>14.47</v>
       </c>
       <c r="H148" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -6797,22 +6797,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Jaxson Dart</t>
+          <t>Oronde Gadsden II</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6821,10 +6821,10 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>43.39</v>
+        <v>54.83</v>
       </c>
       <c r="H149" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -6840,22 +6840,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Aaron Rodgers</t>
+          <t>Michael Badgley</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6864,10 +6864,10 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>16.17</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="H150" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -6883,34 +6883,34 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Oronde Gadsden II</t>
+          <t>Buccaneers D/ST</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>53.57</v>
+        <v>5.35</v>
       </c>
       <c r="H151" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -6926,22 +6926,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Michael Badgley</t>
+          <t>Tyjae Spears</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6950,10 +6950,10 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>73.13</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="H152" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -6964,55 +6964,55 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Buccaneers D/ST</t>
+          <t>Christian McCaffrey</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>14.52</v>
+        <v>99.62</v>
       </c>
       <c r="H153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Diggs in her Flower Pitts</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tyjae Spears</t>
+          <t>Jonathan Taylor</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7022,12 +7022,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7036,14 +7036,14 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>12.74</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H154" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Matt Murawski</t>
+          <t>Joseph Guretse</t>
         </is>
       </c>
     </row>
@@ -7055,22 +7055,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Christian McCaffrey</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7079,10 +7079,10 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>99.61</v>
+        <v>89.73</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -7098,22 +7098,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Jonathan Taylor</t>
+          <t>Zay Flowers</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7122,10 +7122,10 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>99.40000000000001</v>
+        <v>78.56</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -7141,22 +7141,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Sam LaPorta</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>86.65000000000001</v>
+        <v>73.02</v>
       </c>
       <c r="H157" t="n">
         <v>7</v>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Zay Flowers</t>
+          <t>DeVonta Smith</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7194,12 +7194,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>76.87</v>
+        <v>22.49</v>
       </c>
       <c r="H158" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -7227,22 +7227,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sam LaPorta</t>
+          <t>Tyrone Tracy Jr.</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>58.18</v>
+        <v>52.81</v>
       </c>
       <c r="H159" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DeVonta Smith</t>
+          <t>Stefon Diggs</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7280,12 +7280,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>24.21</v>
+        <v>49.08</v>
       </c>
       <c r="H160" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -7313,22 +7313,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Tyrone Tracy Jr.</t>
+          <t>Justin Herbert</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7337,10 +7337,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>47.11</v>
+        <v>72.98</v>
       </c>
       <c r="H161" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -7356,34 +7356,34 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Stefon Diggs</t>
+          <t>Trey Benson</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>47.68</v>
+        <v>0.61</v>
       </c>
       <c r="H162" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -7399,22 +7399,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Justin Herbert</t>
+          <t>Kyle Pitts Sr.</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -7423,10 +7423,10 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>70.48</v>
+        <v>39.35</v>
       </c>
       <c r="H163" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -7442,34 +7442,34 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Trey Benson</t>
+          <t>Cameron Dicker</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>95.7</v>
       </c>
       <c r="H164" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -7485,34 +7485,34 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Kyle Pitts Sr.</t>
+          <t>Colts D/ST</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>40.17</v>
+        <v>60.89</v>
       </c>
       <c r="H165" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -7528,22 +7528,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cameron Dicker</t>
+          <t>Romeo Doubs</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>94.64</v>
+        <v>35.36</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Colts D/ST</t>
+          <t>Browns D/ST</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>64.84</v>
+        <v>8.07</v>
       </c>
       <c r="H167" t="n">
         <v>8</v>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Romeo Doubs</t>
+          <t>Tez Johnson</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7638,10 +7638,10 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>36.19</v>
+        <v>1.37</v>
       </c>
       <c r="H168" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -7652,60 +7652,60 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Browns D/ST</t>
+          <t>Malik Nabers</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>13.37</v>
+        <v>13.85</v>
       </c>
       <c r="H169" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Diggs in her Flower Pitts</t>
+          <t>V Diddy</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tez Johnson</t>
+          <t>Baker Mayfield</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7724,14 +7724,14 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.57</v>
+        <v>24.34</v>
       </c>
       <c r="H170" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Joseph Guretse</t>
+          <t>Vidhan Dhol</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Malik Nabers</t>
+          <t>Ladd McConkey</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7753,24 +7753,24 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>14.06</v>
+        <v>88.31</v>
       </c>
       <c r="H171" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -7786,34 +7786,34 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Baker Mayfield</t>
+          <t>Garrett Wilson</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>33.3</v>
+        <v>18.72</v>
       </c>
       <c r="H172" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -7829,34 +7829,34 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ladd McConkey</t>
+          <t>David Montgomery</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>88.18000000000001</v>
+        <v>60.14</v>
       </c>
       <c r="H173" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
@@ -7872,34 +7872,34 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Garrett Wilson</t>
+          <t>T.J. Hockenson</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>13.61</v>
+        <v>50.04</v>
       </c>
       <c r="H174" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>David Montgomery</t>
+          <t>Jaylen Warren</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>47.36</v>
+        <v>74.63</v>
       </c>
       <c r="H175" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -7958,22 +7958,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>T.J. Hockenson</t>
+          <t>Chris Olave</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7982,10 +7982,10 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>50.15</v>
+        <v>66.91</v>
       </c>
       <c r="H176" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Jaylen Warren</t>
+          <t>Rhamondre Stevenson</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8011,24 +8011,24 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>73.54000000000001</v>
+        <v>16.03</v>
       </c>
       <c r="H177" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Chris Olave</t>
+          <t>Jauan Jennings</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8054,12 +8054,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -8068,10 +8068,10 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>70.01000000000001</v>
+        <v>27.9</v>
       </c>
       <c r="H178" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Rhamondre Stevenson</t>
+          <t>Rachaad White</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8097,24 +8097,24 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>46.85</v>
+        <v>7.64</v>
       </c>
       <c r="H179" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
@@ -8130,17 +8130,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Jauan Jennings</t>
+          <t>Tyler Allgeier</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -8154,10 +8154,10 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>23.13</v>
+        <v>3.33</v>
       </c>
       <c r="H180" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -8173,22 +8173,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Rachaad White</t>
+          <t>Ka'imi Fairbairn</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -8197,10 +8197,10 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>21.06</v>
+        <v>32.73</v>
       </c>
       <c r="H181" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
@@ -8216,34 +8216,34 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tyler Allgeier</t>
+          <t>Commanders D/ST</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.41</v>
+        <v>3.1</v>
       </c>
       <c r="H182" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
@@ -8259,22 +8259,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ka'imi Fairbairn</t>
+          <t>Cade Otton</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -8283,10 +8283,10 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>30.71</v>
+        <v>3.22</v>
       </c>
       <c r="H183" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
@@ -8302,34 +8302,34 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Commanders D/ST</t>
+          <t>Ryan Fitzgerald</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.95</v>
+        <v>4.38</v>
       </c>
       <c r="H184" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
@@ -8345,17 +8345,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Cade Otton</t>
+          <t>Panthers D/ST</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8365,14 +8365,14 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>9.460000000000001</v>
+        <v>2.62</v>
       </c>
       <c r="H185" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
@@ -8388,22 +8388,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ryan Fitzgerald</t>
+          <t>Trevor Lawrence</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5.11</v>
+        <v>10.58</v>
       </c>
       <c r="H186" t="n">
         <v>16</v>
@@ -8426,70 +8426,70 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Panthers D/ST</t>
+          <t>Bijan Robinson</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.81</v>
+        <v>98.37</v>
       </c>
       <c r="H187" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>V Diddy</t>
+          <t>Deflatriots</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Trevor Lawrence</t>
+          <t>Josh Jacobs</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -8498,14 +8498,14 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>8.59</v>
+        <v>96</v>
       </c>
       <c r="H188" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Vidhan Dhol</t>
+          <t>Kaley Joseph</t>
         </is>
       </c>
     </row>
@@ -8517,22 +8517,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Bijan Robinson</t>
+          <t>Tee Higgins</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -8541,10 +8541,10 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>98.23</v>
+        <v>59.45</v>
       </c>
       <c r="H189" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
@@ -8560,34 +8560,34 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Josh Jacobs</t>
+          <t>DK Metcalf</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>95.65000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="H190" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
@@ -8603,17 +8603,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tee Higgins</t>
+          <t>D'Andre Swift</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8623,14 +8623,14 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>73.04000000000001</v>
+        <v>32.58</v>
       </c>
       <c r="H191" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DK Metcalf</t>
+          <t>Calvin Ridley</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8656,24 +8656,24 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>86.25</v>
+        <v>5.05</v>
       </c>
       <c r="H192" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -8689,22 +8689,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>D'Andre Swift</t>
+          <t>Brock Purdy</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -8713,10 +8713,10 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>79.31999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="H193" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -8732,17 +8732,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Calvin Ridley</t>
+          <t>J.K. Dobbins</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8752,14 +8752,14 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>7.19</v>
+        <v>55.53</v>
       </c>
       <c r="H194" t="n">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
@@ -8775,34 +8775,34 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Brock Purdy</t>
+          <t>Tucker Kraft</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>16.16</v>
+        <v>61.96</v>
       </c>
       <c r="H195" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -8818,17 +8818,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>J.K. Dobbins</t>
+          <t>Darnell Mooney</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8842,10 +8842,10 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>56.75</v>
+        <v>6.02</v>
       </c>
       <c r="H196" t="n">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -8861,22 +8861,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tucker Kraft</t>
+          <t>Nick Chubb</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -8885,10 +8885,10 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>74.43000000000001</v>
+        <v>15.73</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Darnell Mooney</t>
+          <t>Wan'Dale Robinson</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8914,24 +8914,24 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>7.99</v>
+        <v>50.07</v>
       </c>
       <c r="H198" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -8947,22 +8947,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Nick Chubb</t>
+          <t>Matthew Stafford</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8971,10 +8971,10 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>16.29</v>
+        <v>39.1</v>
       </c>
       <c r="H199" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
@@ -8990,22 +8990,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Wan'Dale Robinson</t>
+          <t>Cairo Santos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -9014,10 +9014,10 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>48.84</v>
+        <v>44.51</v>
       </c>
       <c r="H200" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
@@ -9033,34 +9033,34 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Matthew Stafford</t>
+          <t>Patriots D/ST</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>29.73</v>
+        <v>65.44</v>
       </c>
       <c r="H201" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
@@ -9076,22 +9076,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Cairo Santos</t>
+          <t>Rico Dowdle</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -9100,10 +9100,10 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>34.67</v>
+        <v>58.58</v>
       </c>
       <c r="H202" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
@@ -9119,122 +9119,36 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Patriots D/ST</t>
+          <t>Carson Wentz</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>68.70999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I203" t="inlineStr">
-        <is>
-          <t>Kaley Joseph</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Deflatriots</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Rico Dowdle</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>RB/WR/TE</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="H204" t="n">
-        <v>14</v>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>Kaley Joseph</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Deflatriots</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Carson Wentz</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>IR</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>INJURY_RESERVE</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H205" t="n">
-        <v>30</v>
-      </c>
-      <c r="I205" t="inlineStr">
         <is>
           <t>Kaley Joseph</t>
         </is>
